--- a/data/Test/ACT/Series_Test/ACT_Protocol_Series_Test.xlsx
+++ b/data/Test/ACT/Series_Test/ACT_Protocol_Series_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gebhardt\Programme\DEV\Git\ExMechEva\data\Test\ACT\Series_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C825A5F-83D2-40F0-A15C-25FB6654E7DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB046C56-DA75-45A6-B387-FF578773168F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,6 +1001,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,18 +1031,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1040,14 +1049,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1081,18 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,10 +1380,10 @@
   <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="13" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1953,16 +1953,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="78" t="s">
         <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1973,10 +1973,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1985,10 +1985,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="76"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="5" t="s">
         <v>138</v>
       </c>
@@ -1997,10 +1997,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="76"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2009,14 +2009,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="73" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -2025,12 +2025,12 @@
       <c r="B6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="75">
         <v>1</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -2039,10 +2039,10 @@
       <c r="B7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -2051,10 +2051,10 @@
       <c r="B8" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -2063,12 +2063,12 @@
       <c r="B9" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="68">
         <v>2</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -2077,10 +2077,10 @@
       <c r="B10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -2089,10 +2089,10 @@
       <c r="B11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -2101,12 +2101,12 @@
       <c r="B12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="75">
         <v>3</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -2115,10 +2115,10 @@
       <c r="B13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -2127,10 +2127,10 @@
       <c r="B14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -2139,12 +2139,12 @@
       <c r="B15" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="68">
         <v>4</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -2153,10 +2153,10 @@
       <c r="B16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="82"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -2165,10 +2165,10 @@
       <c r="B17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="83"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -2177,12 +2177,12 @@
       <c r="B18" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="75">
         <v>5</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -2191,10 +2191,10 @@
       <c r="B19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -2203,10 +2203,10 @@
       <c r="B20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -2215,12 +2215,12 @@
       <c r="B21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="68">
         <v>6</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
@@ -2229,10 +2229,10 @@
       <c r="B22" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
@@ -2241,10 +2241,10 @@
       <c r="B23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="83"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -2253,12 +2253,12 @@
       <c r="B24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="75">
         <v>7</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
@@ -2267,10 +2267,10 @@
       <c r="B25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
@@ -2279,10 +2279,10 @@
       <c r="B26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
@@ -2291,12 +2291,12 @@
       <c r="B27" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="68">
         <v>8</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -2305,10 +2305,10 @@
       <c r="B28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -2317,10 +2317,10 @@
       <c r="B29" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -2329,12 +2329,12 @@
       <c r="B30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="75">
         <v>9</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
@@ -2343,10 +2343,10 @@
       <c r="B31" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -2355,10 +2355,10 @@
       <c r="B32" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -2367,12 +2367,12 @@
       <c r="B33" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="68">
         <v>10</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
@@ -2381,10 +2381,10 @@
       <c r="B34" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="82"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -2393,10 +2393,10 @@
       <c r="B35" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="83"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="74"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
@@ -2405,12 +2405,12 @@
       <c r="B36" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="75">
         <v>11</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="74"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -2419,10 +2419,10 @@
       <c r="B37" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="74"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
@@ -2431,53 +2431,13 @@
       <c r="B38" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
@@ -2487,6 +2447,46 @@
     <mergeCell ref="C1:C5"/>
     <mergeCell ref="D1:D5"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2508,24 +2508,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="78" t="s">
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="78" t="s">
         <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2536,14 +2536,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2552,14 +2552,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="5" t="s">
         <v>138</v>
       </c>
@@ -2568,14 +2568,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="2" t="s">
         <v>86</v>
       </c>
@@ -2584,8 +2584,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
@@ -2595,13 +2595,13 @@
       <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="84" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -2620,8 +2620,8 @@
       <c r="H6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -2640,8 +2640,8 @@
       <c r="H7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="96"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -2660,8 +2660,8 @@
       <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -2680,8 +2680,8 @@
       <c r="H9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -2700,8 +2700,8 @@
       <c r="H10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -2720,8 +2720,8 @@
       <c r="H11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -2748,8 +2748,8 @@
       <c r="H12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -2768,8 +2768,8 @@
       <c r="H13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -2788,8 +2788,8 @@
       <c r="H14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -2808,8 +2808,8 @@
       <c r="H15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -2828,8 +2828,8 @@
       <c r="H16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -2848,8 +2848,8 @@
       <c r="H17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="95"/>
-      <c r="J17" s="96"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -2868,8 +2868,8 @@
       <c r="H18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -2888,8 +2888,8 @@
       <c r="H19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -2908,8 +2908,8 @@
       <c r="H20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -2928,8 +2928,8 @@
       <c r="H21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
@@ -2948,8 +2948,8 @@
       <c r="H22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
@@ -2968,8 +2968,8 @@
       <c r="H23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -2988,8 +2988,8 @@
       <c r="H24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
@@ -3008,8 +3008,8 @@
       <c r="H25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="95"/>
-      <c r="J25" s="96"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="87"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
@@ -3028,8 +3028,8 @@
       <c r="H26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="97"/>
-      <c r="J26" s="98"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
@@ -3048,8 +3048,8 @@
       <c r="H27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -3068,8 +3068,8 @@
       <c r="H28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="97"/>
-      <c r="J28" s="98"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -3088,8 +3088,8 @@
       <c r="H29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -3108,8 +3108,8 @@
       <c r="H30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="98"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
@@ -3128,8 +3128,8 @@
       <c r="H31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="87"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -3148,8 +3148,8 @@
       <c r="H32" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="97"/>
-      <c r="J32" s="98"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -3168,8 +3168,8 @@
       <c r="H33" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
@@ -3188,8 +3188,8 @@
       <c r="H34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="97"/>
-      <c r="J34" s="98"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -3208,8 +3208,8 @@
       <c r="H35" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="95"/>
-      <c r="J35" s="96"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
@@ -3228,8 +3228,8 @@
       <c r="H36" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="97"/>
-      <c r="J36" s="98"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -3248,8 +3248,8 @@
       <c r="H37" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="87"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
@@ -3268,20 +3268,30 @@
       <c r="H38" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="97"/>
-      <c r="J38" s="98"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:E4"/>
+    <mergeCell ref="F1:F5"/>
+    <mergeCell ref="H1:H5"/>
+    <mergeCell ref="G1:G5"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
@@ -3294,25 +3304,15 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:E4"/>
-    <mergeCell ref="F1:F5"/>
-    <mergeCell ref="H1:H5"/>
-    <mergeCell ref="G1:G5"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
